--- a/CSAY_DipGen/CSAY_DipGen/Direct purchase docs record.xlsx
+++ b/CSAY_DipGen/CSAY_DipGen/Direct purchase docs record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1_ThisFolder\14. Tippani and other format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VBStudio\CSAY_DipGEN\CSAY_DipGen\CSAY_DipGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F436330-5540-4AB8-A54F-0B0E98128BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7200E62-5632-4756-A66B-E5769ADF5E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Direct purchase" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Direct purchase (2)" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
     <sheet name="comparative chart" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Darta_Chalani!$A$1:$D$34</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="149">
   <si>
     <t>Request letter, if any</t>
   </si>
@@ -623,15 +624,6 @@
     <t>Rank</t>
   </si>
   <si>
-    <t>Contractor 2, Address 2, Country</t>
-  </si>
-  <si>
-    <t>Contractor 1, Address 1, Country</t>
-  </si>
-  <si>
-    <t>Contractor 3, Address 3, Country</t>
-  </si>
-  <si>
     <t>Slurry seal</t>
   </si>
   <si>
@@ -672,6 +664,50 @@
   </si>
   <si>
     <t>2082/3/20</t>
+  </si>
+  <si>
+    <t>&lt;&lt;CONTEXT1&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;BUDGET_SUBHEAD&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;PROJECT_NAME&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;EST_NEPALI_WORDS&gt;&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF3300"/>
+        <rFont val="Kokila"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;&lt;LVL1_NAME_POSITION&gt;&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>प्रथम वोलपत्रदाता, रुपन्दही-४</t>
+  </si>
+  <si>
+    <t>दोस्रो वोलपत्रदाता, काठमाण्डौ-४</t>
+  </si>
+  <si>
+    <t>तोस्रो वोलपत्रदाता, बुटवल-४</t>
+  </si>
+  <si>
+    <t>??लागतमिति??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">??आ.व.?? </t>
+  </si>
+  <si>
+    <t>??ईस्टिमेटरकम??</t>
   </si>
 </sst>
 </file>
@@ -682,7 +718,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -815,6 +851,56 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF3300"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF3300"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF3300"/>
+      <name val="Kokila"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Kokila"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF3300"/>
+      <name val="Kokila"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF3300"/>
+      <name val="Kalimati"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF3300"/>
+      <name val="Kalimati"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF6600"/>
+      <name val="Kalimati"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -982,7 +1068,7 @@
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1084,18 +1170,45 @@
     <xf numFmtId="2" fontId="19" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1105,33 +1218,14 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1646,7 +1740,7 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="14" t="s">
         <v>40</v>
       </c>
@@ -2340,7 +2434,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>40</v>
@@ -2405,8 +2499,8 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>134</v>
+      <c r="C6" s="39" t="s">
+        <v>131</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>40</v>
@@ -2434,8 +2528,8 @@
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>134</v>
+      <c r="C7" s="39" t="s">
+        <v>131</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>40</v>
@@ -2466,8 +2560,8 @@
       <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>135</v>
+      <c r="C8" s="39" t="s">
+        <v>132</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="14" t="s">
@@ -2493,8 +2587,8 @@
       <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>135</v>
+      <c r="C9" s="39" t="s">
+        <v>132</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="14" t="s">
@@ -2520,8 +2614,8 @@
       <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>135</v>
+      <c r="C10" s="39" t="s">
+        <v>132</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="14" t="s">
@@ -2547,8 +2641,8 @@
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>136</v>
+      <c r="C11" s="39" t="s">
+        <v>133</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>40</v>
@@ -2574,8 +2668,8 @@
       <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>136</v>
+      <c r="C12" s="39" t="s">
+        <v>133</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>40</v>
@@ -2601,8 +2695,8 @@
       <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>136</v>
+      <c r="C13" s="39" t="s">
+        <v>133</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>40</v>
@@ -2651,8 +2745,8 @@
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="40" t="s">
-        <v>137</v>
+      <c r="C15" s="39" t="s">
+        <v>134</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>40</v>
@@ -2680,8 +2774,8 @@
       <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="40" t="s">
-        <v>137</v>
+      <c r="C16" s="39" t="s">
+        <v>134</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>40</v>
@@ -2707,8 +2801,8 @@
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>137</v>
+      <c r="C17" s="39" t="s">
+        <v>134</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="14" t="s">
@@ -2734,8 +2828,8 @@
       <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>138</v>
+      <c r="C18" s="39" t="s">
+        <v>135</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>40</v>
@@ -2761,8 +2855,8 @@
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="40" t="s">
-        <v>138</v>
+      <c r="C19" s="39" t="s">
+        <v>135</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>40</v>
@@ -2790,8 +2884,8 @@
       <c r="B20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="40" t="s">
-        <v>138</v>
+      <c r="C20" s="39" t="s">
+        <v>135</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="14" t="s">
@@ -2815,8 +2909,8 @@
       <c r="B21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="40" t="s">
-        <v>139</v>
+      <c r="C21" s="39" t="s">
+        <v>136</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>40</v>
@@ -2865,8 +2959,8 @@
       <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="40" t="s">
-        <v>140</v>
+      <c r="C23" s="39" t="s">
+        <v>137</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>40</v>
@@ -2894,8 +2988,8 @@
       <c r="B24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="40" t="s">
-        <v>140</v>
+      <c r="C24" s="39" t="s">
+        <v>137</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>40</v>
@@ -2929,7 +3023,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,11 +3037,11 @@
       <c r="A1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2978,11 +3072,11 @@
       <c r="A5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3011,18 +3105,18 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="40" t="s">
         <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="38" t="s">
         <v>90</v>
       </c>
       <c r="D10" t="s">
@@ -3031,7 +3125,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="38" t="s">
         <v>91</v>
       </c>
       <c r="D11" t="s">
@@ -3042,7 +3136,7 @@
       <c r="A12" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
       <c r="D12" t="s">
@@ -3053,7 +3147,7 @@
       <c r="A13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="38" t="s">
         <v>93</v>
       </c>
       <c r="D13" t="s">
@@ -3064,7 +3158,7 @@
       <c r="A14" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>94</v>
       </c>
       <c r="D14" t="s">
@@ -3073,7 +3167,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>95</v>
       </c>
       <c r="D15" t="s">
@@ -3084,43 +3178,43 @@
       <c r="A16" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="40" t="s">
         <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="40" t="s">
         <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="40" t="s">
         <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="40" t="s">
         <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>96</v>
       </c>
       <c r="D20" t="s">
@@ -3128,35 +3222,35 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="40" t="s">
         <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="40" t="s">
         <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="40" t="s">
         <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="40" t="s">
         <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3165,19 +3259,19 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="40" t="s">
         <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3200,8 +3294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A428633-8FDA-4E48-AA52-6521CA38E66E}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3210,7 +3304,7 @@
     <col min="2" max="2" width="50.140625" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -3222,81 +3316,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="A5" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -3310,32 +3404,32 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="33" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="33" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="J6" s="34"/>
       <c r="K6" s="33" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="L6" s="34"/>
       <c r="M6" s="21" t="s">
@@ -3343,10 +3437,10 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="21" t="s">
         <v>114</v>
       </c>
@@ -3419,7 +3513,7 @@
         <v>A.1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>[1]Abs!C9</f>
@@ -3466,7 +3560,7 @@
         <v>A.2</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C11" s="3" t="str">
         <f>[1]Abs!C10</f>
@@ -3513,7 +3607,7 @@
         <v>A.3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C12" s="3" t="str">
         <f>[1]Abs!C11</f>
@@ -3560,7 +3654,7 @@
         <v>A.4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C13" s="3" t="str">
         <f>[1]Abs!C12</f>
@@ -3602,13 +3696,13 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
       <c r="F14" s="36">
         <f>ROUND(SUM(F9:F13),2)</f>
         <v>794635.48</v>
@@ -3631,13 +3725,13 @@
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="36">
         <f>ROUND(F14*0.13,2)</f>
         <v>103302.61</v>
@@ -3660,13 +3754,13 @@
       <c r="M15" s="30"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
       <c r="F16" s="36">
         <f>ROUND(F14+F15,2)</f>
         <v>897938.09</v>
@@ -3689,13 +3783,13 @@
       <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29">
@@ -3715,13 +3809,13 @@
       <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="31">
@@ -3741,13 +3835,13 @@
       <c r="M18" s="30"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="32">
@@ -3771,6 +3865,11 @@
         <v>34</v>
       </c>
     </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>34</v>
@@ -3778,6 +3877,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
@@ -3787,13 +3892,65 @@
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72F8C71-938A-46C4-A864-C1DC75B54701}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" s="60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="A3" s="61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="23.25" x14ac:dyDescent="0.5">
+      <c r="A5" s="57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="23.25" x14ac:dyDescent="0.6">
+      <c r="A6" s="62" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="24" x14ac:dyDescent="0.6">
+      <c r="A8" s="59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CSAY_DipGen/CSAY_DipGen/Direct purchase docs record.xlsx
+++ b/CSAY_DipGen/CSAY_DipGen/Direct purchase docs record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VBStudio\CSAY_DipGEN\CSAY_DipGen\CSAY_DipGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7200E62-5632-4756-A66B-E5769ADF5E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C45DAE-1F90-4714-BE27-E0D765F549FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Direct purchase" sheetId="1" r:id="rId1"/>
@@ -1179,45 +1179,6 @@
     <xf numFmtId="2" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1226,6 +1187,45 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1650,14 +1650,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2380,7 +2380,7 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C24"/>
     </sheetView>
   </sheetViews>
@@ -2397,14 +2397,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -3316,81 +3316,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
     </row>
     <row r="5" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -3404,16 +3404,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="58" t="s">
         <v>111</v>
       </c>
       <c r="E6" s="41" t="s">
@@ -3437,10 +3437,10 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="21" t="s">
         <v>114</v>
       </c>
@@ -3696,13 +3696,13 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="36">
         <f>ROUND(SUM(F9:F13),2)</f>
         <v>794635.48</v>
@@ -3725,13 +3725,13 @@
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="36">
         <f>ROUND(F14*0.13,2)</f>
         <v>103302.61</v>
@@ -3754,13 +3754,13 @@
       <c r="M15" s="30"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="36">
         <f>ROUND(F14+F15,2)</f>
         <v>897938.09</v>
@@ -3783,13 +3783,13 @@
       <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29">
@@ -3809,13 +3809,13 @@
       <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="31">
@@ -3835,13 +3835,13 @@
       <c r="M18" s="30"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="32">
@@ -3877,12 +3877,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
@@ -3892,6 +3886,12 @@
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3901,7 +3901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72F8C71-938A-46C4-A864-C1DC75B54701}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -3911,42 +3911,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="47" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="42" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="48" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="43" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="23.25" x14ac:dyDescent="0.5">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="44" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="23.25" x14ac:dyDescent="0.6">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="49" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="45" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="24" x14ac:dyDescent="0.6">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="46" t="s">
         <v>142</v>
       </c>
     </row>
